--- a/dev/data/raws redesign/testbed.xlsx
+++ b/dev/data/raws redesign/testbed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git repositories\pseudonoma\luria\dev\data\raws redesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Repositories/pseudonoma/luria/dev/data/raws redesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD7B07-736A-4F79-987B-11B8F5F6238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DCD2B9-5CED-814F-B8FD-D5AF17EEBA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
+    <workbookView xWindow="2080" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="allData clean" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="45">
   <si>
     <t>strain</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Well</t>
-  </si>
-  <si>
-    <t>plate_fraction</t>
   </si>
   <si>
     <t>CFU observed</t>
@@ -236,10 +233,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,9 +540,9 @@
       <selection sqref="A1:D781"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -569,7 +570,7 @@
         <v>103.666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -583,7 +584,7 @@
         <v>212.333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -597,7 +598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -611,7 +612,7 @@
         <v>171.333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -625,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -639,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -653,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -667,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -681,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -695,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -709,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -723,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -737,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -751,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -765,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -779,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -793,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -807,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -821,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -835,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -849,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -863,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -877,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -891,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -919,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -933,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -947,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -961,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -975,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -989,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>113.333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>103.333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>156.333333333333</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>93.3333333333333</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>87.6666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>96.6666666666667</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>66.6666666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>59.3333333333333</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>68.6666666666667</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>82.3333333333333</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>91.3333333333333</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>74.3333333333333</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>115.333333333333</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>10</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>10</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>10</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>107.333333333333</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>111.666666666667</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>105.333333333333</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>12</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>146.333333333333</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>12</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>135.333333333333</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>12</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>140.333333333333</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>12</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -5875,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>12</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>12</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -6225,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>12</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>12</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>103.666666666667</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>109.333333333333</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>109.333333333333</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>13</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -6589,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>13</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>13</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>13</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>13</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -7037,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>13</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>13</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>13</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>13</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>13</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>13</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -7233,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>14</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>128.666666666667</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>75.6666666666667</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>14</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>14</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>14</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>14</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>14</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>14</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>14</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>14</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>14</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>14</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>14</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>14</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>14</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>14</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>14</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>14</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>14</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>14</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>14</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>14</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>14</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>14</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>14</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>14</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>14</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>14</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>14</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>14</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>14</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>14</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>14</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>14</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>14</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>14</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>14</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>14</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>14</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>14</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>14</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -8017,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>14</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>14</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>14</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>14</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>14</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>14</v>
       </c>
@@ -8115,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>15</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>15</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>15</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>99.3333333333333</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>15</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>15</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>15</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>15</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>15</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>15</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>15</v>
       </c>
@@ -8269,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>15</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>15</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>15</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>15</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>15</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>15</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>15</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>15</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>15</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>15</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>15</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>15</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>15</v>
       </c>
@@ -8451,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>15</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>15</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>15</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>15</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>15</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>15</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>15</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>15</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>15</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>15</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>15</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>15</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>15</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>15</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>15</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>15</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>15</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>15</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>15</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>15</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>15</v>
       </c>
@@ -8745,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>15</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>15</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>15</v>
       </c>
@@ -8787,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>15</v>
       </c>
@@ -8801,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>15</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>15</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>15</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>15</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>15</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>15</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>15</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>15</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>15</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>15</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>15</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>16</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>16</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>72.3333333333333</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>16</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>16</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>97.6666666666667</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>16</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>16</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>16</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>16</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>16</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>16</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>16</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>16</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>16</v>
       </c>
@@ -9137,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>16</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>16</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>16</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>16</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>16</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>16</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>16</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>16</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>16</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>16</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>16</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>16</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>16</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>16</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>16</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>16</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>16</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>16</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>16</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>16</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>16</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>16</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>16</v>
       </c>
@@ -9459,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>16</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>16</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>16</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>16</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>16</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>16</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>16</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>16</v>
       </c>
@@ -9571,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>16</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>16</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>16</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>16</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>16</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>16</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>16</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>16</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>16</v>
       </c>
@@ -9697,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>16</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>16</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>16</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>16</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>16</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>16</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>16</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>17</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>68.6666666666667</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>17</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>17</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>17</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>109.666666666667</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>17</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>17</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>17</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>17</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>17</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>17</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>17</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>17</v>
       </c>
@@ -9963,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>17</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>17</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>17</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>17</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>17</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>17</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>17</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>17</v>
       </c>
@@ -10075,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>17</v>
       </c>
@@ -10089,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>17</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>17</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>17</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>17</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>17</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>17</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>17</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>17</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>17</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>17</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>17</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>17</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>17</v>
       </c>
@@ -10271,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>17</v>
       </c>
@@ -10285,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>17</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>17</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>17</v>
       </c>
@@ -10327,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>17</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>17</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>17</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>17</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>17</v>
       </c>
@@ -10397,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>17</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>17</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>17</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>17</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>17</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>17</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>17</v>
       </c>
@@ -10495,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>17</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>17</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>17</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>17</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>17</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>17</v>
       </c>
@@ -10579,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>17</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>17</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>17</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>17</v>
       </c>
@@ -10635,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>18</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>60.3333333333333</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>18</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>64.3333333333333</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>18</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>18</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v>77.6666666666667</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>18</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>18</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>18</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>18</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>18</v>
       </c>
@@ -10761,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>18</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>18</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>18</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>18</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>18</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>18</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>18</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>18</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>18</v>
       </c>
@@ -10887,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>18</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>18</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>18</v>
       </c>
@@ -10929,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>18</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>18</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>18</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>18</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>18</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>18</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>18</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>18</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>18</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>18</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>18</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>18</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>18</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>18</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>18</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>18</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>18</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>18</v>
       </c>
@@ -11181,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>18</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>18</v>
       </c>
@@ -11209,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>18</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>18</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>18</v>
       </c>
@@ -11251,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>18</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>18</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>18</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>18</v>
       </c>
@@ -11307,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>18</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>18</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>18</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>18</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>18</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>18</v>
       </c>
@@ -11391,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>18</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>18</v>
       </c>
@@ -11419,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>18</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>18</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>18</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>18</v>
       </c>
@@ -11482,41 +11483,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0688490E-ACF2-46CD-81CD-1F40B0A8C2D3}">
-  <dimension ref="A1:L738"/>
+  <dimension ref="A1:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -11525,33 +11526,45 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G2">
+        <v>444</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11559,22 +11572,28 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
       <c r="F3" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H3">
-        <v>103.666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11582,17 +11601,28 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
       <c r="F4" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11600,17 +11630,28 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
       <c r="F5" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11618,17 +11659,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
       <c r="F6" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11636,22 +11688,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
       <c r="F7" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H7">
-        <v>212.333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G7">
+        <v>226</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -11659,17 +11717,28 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
       <c r="F8" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11677,17 +11746,28 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>200</v>
       </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
       <c r="F9" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G9">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -11695,17 +11775,28 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>200</v>
       </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
       <c r="F10" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -11713,22 +11804,28 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>200</v>
       </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
       <c r="F11" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G11">
+        <v>187</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -11736,17 +11833,28 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>200</v>
       </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
       <c r="F12" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>206</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -11754,17 +11862,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>200</v>
       </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
       <c r="F13" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G13">
+        <v>207</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11772,17 +11891,28 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>200</v>
       </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
       <c r="F14" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -11790,22 +11920,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
       <c r="F15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H15">
-        <v>171.333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G15">
+        <v>178</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -11813,17 +11949,28 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>200</v>
       </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
       <c r="F16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G16">
+        <v>187</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -11831,17 +11978,28 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>200</v>
       </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
       <c r="F17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="G17">
+        <v>149</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -11849,17 +12007,28 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>200</v>
       </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
       <c r="F18" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -11867,7 +12036,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -11884,8 +12053,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -11893,11 +12065,14 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>200</v>
       </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
@@ -11907,8 +12082,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -11916,11 +12094,14 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>200</v>
       </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
@@ -11930,8 +12111,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -11939,22 +12123,28 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>200</v>
       </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -11962,11 +12152,14 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>200</v>
       </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
@@ -11976,8 +12169,11 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -11985,22 +12181,28 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>200</v>
       </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -12008,22 +12210,28 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>200</v>
       </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -12031,11 +12239,14 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>200</v>
       </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -12045,8 +12256,11 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -12054,11 +12268,14 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>200</v>
       </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
       <c r="F27">
         <v>1</v>
       </c>
@@ -12068,198 +12285,153 @@
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="315" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
-    </row>
-    <row r="316" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
-    </row>
-    <row r="317" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
-    </row>
-    <row r="318" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
-    </row>
-    <row r="375" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F375" s="1"/>
-      <c r="G375" s="1"/>
-    </row>
-    <row r="376" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F376" s="1"/>
-      <c r="G376" s="1"/>
-    </row>
-    <row r="377" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F377" s="1"/>
-      <c r="G377" s="1"/>
-    </row>
-    <row r="378" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F378" s="1"/>
-      <c r="G378" s="1"/>
-    </row>
-    <row r="435" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F435" s="1"/>
-      <c r="G435" s="1"/>
-    </row>
-    <row r="436" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F436" s="1"/>
-      <c r="G436" s="1"/>
-    </row>
-    <row r="437" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F437" s="1"/>
-      <c r="G437" s="1"/>
-    </row>
-    <row r="438" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
-    </row>
-    <row r="495" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F495" s="1"/>
-      <c r="G495" s="1"/>
-    </row>
-    <row r="496" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F496" s="1"/>
-      <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F497" s="1"/>
-      <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F498" s="1"/>
-      <c r="G498" s="1"/>
-    </row>
-    <row r="555" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F555" s="1"/>
-      <c r="G555" s="1"/>
-    </row>
-    <row r="556" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F556" s="1"/>
-      <c r="G556" s="1"/>
-    </row>
-    <row r="557" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F557" s="1"/>
-      <c r="G557" s="1"/>
-    </row>
-    <row r="558" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F558" s="1"/>
-      <c r="G558" s="1"/>
-    </row>
-    <row r="615" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F615" s="1"/>
-      <c r="G615" s="1"/>
-    </row>
-    <row r="616" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F616" s="1"/>
-      <c r="G616" s="1"/>
-    </row>
-    <row r="617" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F617" s="1"/>
-      <c r="G617" s="1"/>
-    </row>
-    <row r="618" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F618" s="1"/>
-      <c r="G618" s="1"/>
-    </row>
-    <row r="675" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="675" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F675" s="1"/>
-      <c r="G675" s="1"/>
-    </row>
-    <row r="676" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="676" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F676" s="1"/>
-      <c r="G676" s="1"/>
-    </row>
-    <row r="677" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="677" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F677" s="1"/>
-      <c r="G677" s="1"/>
-    </row>
-    <row r="678" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="678" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F678" s="1"/>
-      <c r="G678" s="1"/>
-    </row>
-    <row r="735" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="735" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F735" s="1"/>
-      <c r="G735" s="1"/>
-    </row>
-    <row r="736" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="736" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F736" s="1"/>
-      <c r="G736" s="1"/>
-    </row>
-    <row r="737" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="737" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F737" s="1"/>
-      <c r="G737" s="1"/>
-    </row>
-    <row r="738" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="738" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F738" s="1"/>
-      <c r="G738" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dev/data/raws redesign/testbed.xlsx
+++ b/dev/data/raws redesign/testbed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Repositories/pseudonoma/luria/dev/data/raws redesign/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git repositories\pseudonoma\luria\dev\data\raws redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DCD2B9-5CED-814F-B8FD-D5AF17EEBA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80585815-8BA6-40D0-A951-B406DF6C1E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="allData clean" sheetId="1" r:id="rId1"/>
@@ -233,14 +233,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -384,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,12 +533,12 @@
   <dimension ref="A1:D781"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D781"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +566,7 @@
         <v>103.666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -584,7 +580,7 @@
         <v>212.333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -598,7 +594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -612,7 +608,7 @@
         <v>171.333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -626,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -640,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -654,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -668,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -682,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -696,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -710,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -724,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -738,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -752,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -766,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -780,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -794,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -808,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -822,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -836,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -850,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -864,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -878,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -892,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -906,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -920,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -934,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -948,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -962,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -976,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -990,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1406,7 @@
         <v>113.333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1420,7 @@
         <v>103.333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1434,7 @@
         <v>156.333333333333</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -1816,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -1942,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>93.3333333333333</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>87.6666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2274,7 @@
         <v>96.6666666666667</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>66.6666666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -2362,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -2446,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -2642,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -2712,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -2754,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -2866,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -2922,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -2950,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -2992,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -3034,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -3090,7 +3086,7 @@
         <v>59.3333333333333</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>68.6666666666667</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -3118,7 +3114,7 @@
         <v>82.3333333333333</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>91.3333333333333</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -3146,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -3174,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -3202,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -3258,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -3314,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -3370,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -3398,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -3454,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -3510,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -3566,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -3608,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -3650,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -3692,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -3720,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -3734,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -3776,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -3804,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -3818,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -3832,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -3846,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -3874,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -3902,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -3916,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +3926,7 @@
         <v>74.3333333333333</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -3944,7 +3940,7 @@
         <v>115.333333333333</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -3958,7 +3954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -3972,7 +3968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -4014,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -4028,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -4042,7 +4038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -4056,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -4084,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -4112,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -4126,7 +4122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -4154,7 +4150,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -4182,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -4196,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -4224,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -4266,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -4280,7 +4276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -4308,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -4322,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -4350,7 +4346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -4364,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>10</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -4406,7 +4402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>10</v>
       </c>
@@ -4420,7 +4416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -4434,7 +4430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -4462,7 +4458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -4490,7 +4486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -4546,7 +4542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -4560,7 +4556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -4588,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>10</v>
       </c>
@@ -4602,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -4630,7 +4626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -4644,7 +4640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -4658,7 +4654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -4672,7 +4668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -4686,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -4700,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -4714,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -4742,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -4756,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -4770,7 +4766,7 @@
         <v>107.333333333333</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>111.666666666667</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -4812,7 +4808,7 @@
         <v>105.333333333333</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -4840,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -4868,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -4882,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -4896,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -4910,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -4924,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -4938,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -4952,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -4966,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -4994,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5008,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -5036,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -5078,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -5092,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -5120,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -5134,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -5148,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -5162,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -5176,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5190,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -5204,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -5232,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -5246,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -5302,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -5316,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -5330,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -5344,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -5372,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -5386,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -5400,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -5414,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -5428,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -5456,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -5470,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -5526,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -5540,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -5554,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -5568,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -5582,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -5596,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>12</v>
       </c>
@@ -5610,7 +5606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -5624,7 +5620,7 @@
         <v>146.333333333333</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>12</v>
       </c>
@@ -5638,7 +5634,7 @@
         <v>135.333333333333</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>12</v>
       </c>
@@ -5652,7 +5648,7 @@
         <v>140.333333333333</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -5666,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -5694,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -5708,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>12</v>
       </c>
@@ -5736,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -5764,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -5778,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -5792,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -5820,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -5834,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -5848,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -5862,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -5904,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -5918,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -5932,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -5946,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -5960,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -5974,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -5988,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -6016,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -6030,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>12</v>
       </c>
@@ -6072,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -6086,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -6114,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>12</v>
       </c>
@@ -6142,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -6156,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -6184,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -6198,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -6268,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -6282,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -6296,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -6310,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -6324,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -6338,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>12</v>
       </c>
@@ -6352,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -6366,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -6380,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>12</v>
       </c>
@@ -6408,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -6422,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>103.666666666667</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>109.333333333333</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -6478,7 +6474,7 @@
         <v>109.333333333333</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>13</v>
       </c>
@@ -6534,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -6548,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -6562,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -6590,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -6604,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -6618,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -6632,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -6646,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -6660,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -6674,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -6688,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -6702,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -6716,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -6730,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -6744,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>13</v>
       </c>
@@ -6772,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -6786,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -6800,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -6814,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -6828,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>13</v>
       </c>
@@ -6842,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -6856,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>13</v>
       </c>
@@ -6884,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -6912,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -6926,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>13</v>
       </c>
@@ -6940,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -6982,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -6996,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -7024,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -7052,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>13</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>13</v>
       </c>
@@ -7108,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -7122,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>13</v>
       </c>
@@ -7136,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>13</v>
       </c>
@@ -7150,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -7164,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -7178,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>13</v>
       </c>
@@ -7192,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>13</v>
       </c>
@@ -7206,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -7220,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -7234,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -7248,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -7262,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -7276,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>14</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>128.666666666667</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -7304,7 +7300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -7318,7 +7314,7 @@
         <v>75.6666666666667</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>14</v>
       </c>
@@ -7332,7 +7328,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>14</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>14</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>14</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -7388,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -7402,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>14</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>14</v>
       </c>
@@ -7430,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>14</v>
       </c>
@@ -7444,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>14</v>
       </c>
@@ -7458,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -7472,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -7486,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>14</v>
       </c>
@@ -7500,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>14</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>14</v>
       </c>
@@ -7528,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>14</v>
       </c>
@@ -7542,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -7556,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>14</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>14</v>
       </c>
@@ -7598,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>14</v>
       </c>
@@ -7612,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>14</v>
       </c>
@@ -7626,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -7640,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -7654,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>14</v>
       </c>
@@ -7668,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>14</v>
       </c>
@@ -7682,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>14</v>
       </c>
@@ -7696,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>14</v>
       </c>
@@ -7710,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>14</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>14</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>14</v>
       </c>
@@ -7752,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>14</v>
       </c>
@@ -7766,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -7780,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>14</v>
       </c>
@@ -7794,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>14</v>
       </c>
@@ -7808,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>14</v>
       </c>
@@ -7822,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>14</v>
       </c>
@@ -7836,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>14</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>14</v>
       </c>
@@ -7864,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>14</v>
       </c>
@@ -7878,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>14</v>
       </c>
@@ -7892,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>14</v>
       </c>
@@ -7906,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -7920,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>14</v>
       </c>
@@ -7934,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>14</v>
       </c>
@@ -7948,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>14</v>
       </c>
@@ -7962,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>14</v>
       </c>
@@ -7976,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>14</v>
       </c>
@@ -7990,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>14</v>
       </c>
@@ -8004,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -8018,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>14</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>14</v>
       </c>
@@ -8046,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>14</v>
       </c>
@@ -8060,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>14</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>14</v>
       </c>
@@ -8088,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>14</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>14</v>
       </c>
@@ -8116,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>15</v>
       </c>
@@ -8144,7 +8140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>15</v>
       </c>
@@ -8158,7 +8154,7 @@
         <v>99.3333333333333</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>15</v>
       </c>
@@ -8172,7 +8168,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>15</v>
       </c>
@@ -8186,7 +8182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>15</v>
       </c>
@@ -8200,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>15</v>
       </c>
@@ -8214,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>15</v>
       </c>
@@ -8228,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>15</v>
       </c>
@@ -8242,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>15</v>
       </c>
@@ -8256,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>15</v>
       </c>
@@ -8270,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>15</v>
       </c>
@@ -8284,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>15</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>15</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>15</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>15</v>
       </c>
@@ -8354,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>15</v>
       </c>
@@ -8368,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>15</v>
       </c>
@@ -8382,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>15</v>
       </c>
@@ -8396,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>15</v>
       </c>
@@ -8410,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>15</v>
       </c>
@@ -8438,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>15</v>
       </c>
@@ -8452,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>15</v>
       </c>
@@ -8466,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>15</v>
       </c>
@@ -8480,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>15</v>
       </c>
@@ -8494,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>15</v>
       </c>
@@ -8508,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>15</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>15</v>
       </c>
@@ -8536,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>15</v>
       </c>
@@ -8564,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>15</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>15</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>15</v>
       </c>
@@ -8606,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>15</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>15</v>
       </c>
@@ -8648,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>15</v>
       </c>
@@ -8662,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>15</v>
       </c>
@@ -8676,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>15</v>
       </c>
@@ -8690,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>15</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>15</v>
       </c>
@@ -8718,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>15</v>
       </c>
@@ -8732,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>15</v>
       </c>
@@ -8746,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>15</v>
       </c>
@@ -8760,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>15</v>
       </c>
@@ -8774,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>15</v>
       </c>
@@ -8788,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>15</v>
       </c>
@@ -8802,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>15</v>
       </c>
@@ -8816,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>15</v>
       </c>
@@ -8830,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>15</v>
       </c>
@@ -8844,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>15</v>
       </c>
@@ -8858,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>15</v>
       </c>
@@ -8872,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>15</v>
       </c>
@@ -8886,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>15</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>15</v>
       </c>
@@ -8928,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>15</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>15</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>16</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>16</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>72.3333333333333</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>16</v>
       </c>
@@ -8998,7 +8994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>16</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>97.6666666666667</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>16</v>
       </c>
@@ -9026,7 +9022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>16</v>
       </c>
@@ -9040,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>16</v>
       </c>
@@ -9054,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>16</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>16</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>16</v>
       </c>
@@ -9096,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>16</v>
       </c>
@@ -9110,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>16</v>
       </c>
@@ -9124,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>16</v>
       </c>
@@ -9138,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>16</v>
       </c>
@@ -9152,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>16</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>16</v>
       </c>
@@ -9180,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>16</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>16</v>
       </c>
@@ -9208,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>16</v>
       </c>
@@ -9222,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>16</v>
       </c>
@@ -9236,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>16</v>
       </c>
@@ -9250,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>16</v>
       </c>
@@ -9264,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>16</v>
       </c>
@@ -9292,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>16</v>
       </c>
@@ -9306,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>16</v>
       </c>
@@ -9320,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>16</v>
       </c>
@@ -9334,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>16</v>
       </c>
@@ -9348,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>16</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>16</v>
       </c>
@@ -9376,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>16</v>
       </c>
@@ -9390,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>16</v>
       </c>
@@ -9404,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>16</v>
       </c>
@@ -9418,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>16</v>
       </c>
@@ -9432,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>16</v>
       </c>
@@ -9446,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>16</v>
       </c>
@@ -9460,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>16</v>
       </c>
@@ -9474,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>16</v>
       </c>
@@ -9488,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>16</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>16</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>16</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>16</v>
       </c>
@@ -9544,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>16</v>
       </c>
@@ -9558,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>16</v>
       </c>
@@ -9572,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>16</v>
       </c>
@@ -9586,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>16</v>
       </c>
@@ -9600,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>16</v>
       </c>
@@ -9614,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>16</v>
       </c>
@@ -9628,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>16</v>
       </c>
@@ -9642,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>16</v>
       </c>
@@ -9656,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>16</v>
       </c>
@@ -9670,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>16</v>
       </c>
@@ -9684,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>16</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>16</v>
       </c>
@@ -9712,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>16</v>
       </c>
@@ -9726,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>16</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>16</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>16</v>
       </c>
@@ -9768,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>16</v>
       </c>
@@ -9782,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>16</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>17</v>
       </c>
@@ -9810,7 +9806,7 @@
         <v>68.6666666666667</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>17</v>
       </c>
@@ -9824,7 +9820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>17</v>
       </c>
@@ -9838,7 +9834,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>17</v>
       </c>
@@ -9852,7 +9848,7 @@
         <v>109.666666666667</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>17</v>
       </c>
@@ -9866,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>17</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>17</v>
       </c>
@@ -9894,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>17</v>
       </c>
@@ -9908,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>17</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>17</v>
       </c>
@@ -9936,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>17</v>
       </c>
@@ -9950,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>17</v>
       </c>
@@ -9964,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>17</v>
       </c>
@@ -9978,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>17</v>
       </c>
@@ -9992,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>17</v>
       </c>
@@ -10006,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>17</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>17</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>17</v>
       </c>
@@ -10048,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>17</v>
       </c>
@@ -10062,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>17</v>
       </c>
@@ -10076,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>17</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>17</v>
       </c>
@@ -10104,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>17</v>
       </c>
@@ -10118,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>17</v>
       </c>
@@ -10132,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>17</v>
       </c>
@@ -10146,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>17</v>
       </c>
@@ -10160,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>17</v>
       </c>
@@ -10174,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>17</v>
       </c>
@@ -10188,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>17</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>17</v>
       </c>
@@ -10216,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>17</v>
       </c>
@@ -10230,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>17</v>
       </c>
@@ -10244,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>17</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>17</v>
       </c>
@@ -10272,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>17</v>
       </c>
@@ -10286,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>17</v>
       </c>
@@ -10300,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>17</v>
       </c>
@@ -10314,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>17</v>
       </c>
@@ -10328,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>17</v>
       </c>
@@ -10342,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>17</v>
       </c>
@@ -10356,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>17</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>17</v>
       </c>
@@ -10384,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>17</v>
       </c>
@@ -10398,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>17</v>
       </c>
@@ -10412,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>17</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>17</v>
       </c>
@@ -10440,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>17</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>17</v>
       </c>
@@ -10468,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>17</v>
       </c>
@@ -10482,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>17</v>
       </c>
@@ -10496,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>17</v>
       </c>
@@ -10510,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>17</v>
       </c>
@@ -10524,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>17</v>
       </c>
@@ -10538,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>17</v>
       </c>
@@ -10552,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>17</v>
       </c>
@@ -10566,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>17</v>
       </c>
@@ -10580,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>17</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>17</v>
       </c>
@@ -10608,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>17</v>
       </c>
@@ -10622,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>17</v>
       </c>
@@ -10636,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>18</v>
       </c>
@@ -10650,7 +10646,7 @@
         <v>60.3333333333333</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>18</v>
       </c>
@@ -10664,7 +10660,7 @@
         <v>64.3333333333333</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>18</v>
       </c>
@@ -10678,7 +10674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>18</v>
       </c>
@@ -10692,7 +10688,7 @@
         <v>77.6666666666667</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>18</v>
       </c>
@@ -10706,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>18</v>
       </c>
@@ -10720,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>18</v>
       </c>
@@ -10734,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>18</v>
       </c>
@@ -10748,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>18</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>18</v>
       </c>
@@ -10776,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>18</v>
       </c>
@@ -10790,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>18</v>
       </c>
@@ -10804,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>18</v>
       </c>
@@ -10818,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>18</v>
       </c>
@@ -10832,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>18</v>
       </c>
@@ -10846,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>18</v>
       </c>
@@ -10860,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>18</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>18</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>18</v>
       </c>
@@ -10902,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>18</v>
       </c>
@@ -10916,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>18</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>18</v>
       </c>
@@ -10944,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>18</v>
       </c>
@@ -10958,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>18</v>
       </c>
@@ -10972,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>18</v>
       </c>
@@ -10986,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>18</v>
       </c>
@@ -11000,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>18</v>
       </c>
@@ -11014,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>18</v>
       </c>
@@ -11028,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>18</v>
       </c>
@@ -11042,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>18</v>
       </c>
@@ -11056,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>18</v>
       </c>
@@ -11070,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>18</v>
       </c>
@@ -11084,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>18</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>18</v>
       </c>
@@ -11112,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>18</v>
       </c>
@@ -11126,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>18</v>
       </c>
@@ -11140,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>18</v>
       </c>
@@ -11154,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>18</v>
       </c>
@@ -11168,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>18</v>
       </c>
@@ -11182,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>18</v>
       </c>
@@ -11196,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>18</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>18</v>
       </c>
@@ -11224,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>18</v>
       </c>
@@ -11238,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>18</v>
       </c>
@@ -11252,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>18</v>
       </c>
@@ -11266,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>18</v>
       </c>
@@ -11280,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>18</v>
       </c>
@@ -11294,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>18</v>
       </c>
@@ -11308,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>18</v>
       </c>
@@ -11322,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>18</v>
       </c>
@@ -11336,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>18</v>
       </c>
@@ -11350,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>18</v>
       </c>
@@ -11364,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>18</v>
       </c>
@@ -11378,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>18</v>
       </c>
@@ -11392,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>18</v>
       </c>
@@ -11406,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>18</v>
       </c>
@@ -11420,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>18</v>
       </c>
@@ -11434,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>18</v>
       </c>
@@ -11448,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>18</v>
       </c>
@@ -11462,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>18</v>
       </c>
@@ -11486,21 +11482,21 @@
   <dimension ref="A1:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -11535,7 +11531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11564,7 +11560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11593,7 +11589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11622,7 +11618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11651,7 +11647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11680,7 +11676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11709,7 +11705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -11738,7 +11734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -11796,7 +11792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -11825,7 +11821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -11854,7 +11850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -11883,7 +11879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11912,7 +11908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -11941,7 +11937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -11970,7 +11966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -11999,7 +11995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -12028,7 +12024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -12057,7 +12053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -12086,7 +12082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -12115,7 +12111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -12144,7 +12140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -12173,7 +12169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -12202,7 +12198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -12231,7 +12227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -12260,7 +12256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -12289,148 +12285,148 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="1"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="1"/>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F198" s="1"/>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
     </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F318" s="1"/>
     </row>
-    <row r="375" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F378" s="1"/>
     </row>
-    <row r="435" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F438" s="1"/>
     </row>
-    <row r="495" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F498" s="1"/>
     </row>
-    <row r="555" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F555" s="1"/>
     </row>
-    <row r="556" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F556" s="1"/>
     </row>
-    <row r="557" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F557" s="1"/>
     </row>
-    <row r="558" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F558" s="1"/>
     </row>
-    <row r="615" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F615" s="1"/>
     </row>
-    <row r="616" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F616" s="1"/>
     </row>
-    <row r="617" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F617" s="1"/>
     </row>
-    <row r="618" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F618" s="1"/>
     </row>
-    <row r="675" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F675" s="1"/>
     </row>
-    <row r="676" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F676" s="1"/>
     </row>
-    <row r="677" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F677" s="1"/>
     </row>
-    <row r="678" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F678" s="1"/>
     </row>
-    <row r="735" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F735" s="1"/>
     </row>
-    <row r="736" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F736" s="1"/>
     </row>
-    <row r="737" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F737" s="1"/>
     </row>
-    <row r="738" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F738" s="1"/>
     </row>
   </sheetData>

--- a/dev/data/raws redesign/testbed.xlsx
+++ b/dev/data/raws redesign/testbed.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git repositories\pseudonoma\luria\dev\data\raws redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80585815-8BA6-40D0-A951-B406DF6C1E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD34C788-074D-409F-8E47-B8F2E98F45CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="allData clean" sheetId="1" r:id="rId1"/>
-    <sheet name="raw modded" sheetId="2" r:id="rId2"/>
+    <sheet name="Rep 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Rep5" sheetId="3" r:id="rId3"/>
+    <sheet name="RepNoMut" sheetId="5" r:id="rId4"/>
+    <sheet name="STP Rep16" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="92">
   <si>
     <t>strain</t>
   </si>
@@ -173,6 +176,147 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>Rep 13</t>
+  </si>
+  <si>
+    <t>Rep 16</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
 </sst>
 </file>
 
@@ -213,9 +357,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11481,8 +11626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0688490E-ACF2-46CD-81CD-1F40B0A8C2D3}">
   <dimension ref="A1:K738"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12433,4 +12578,3294 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123C13F-5D43-4281-B470-C410723C3D03}">
+  <dimension ref="A1:K70"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G2">
+        <v>670</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G11">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G13">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G15">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G17">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29">
+        <v>200</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>200</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>161</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>248</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
+      <c r="E34">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+      <c r="E38">
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+      <c r="E40">
+        <v>200</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>200</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43">
+        <v>200</v>
+      </c>
+      <c r="E43">
+        <v>200</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
+      </c>
+      <c r="E45">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46">
+        <v>200</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <v>200</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>200</v>
+      </c>
+      <c r="E50">
+        <v>200</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="E53">
+        <v>200</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>32</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>200</v>
+      </c>
+      <c r="E58">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59">
+        <v>200</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+      <c r="E60">
+        <v>200</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61">
+        <v>200</v>
+      </c>
+      <c r="E61">
+        <v>200</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="E62">
+        <v>200</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>200</v>
+      </c>
+      <c r="E64">
+        <v>200</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65">
+        <v>200</v>
+      </c>
+      <c r="E65">
+        <v>200</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+      <c r="E66">
+        <v>200</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67">
+        <v>200</v>
+      </c>
+      <c r="E67">
+        <v>200</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <v>200</v>
+      </c>
+      <c r="E68">
+        <v>200</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69">
+        <v>200</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70">
+        <v>200</v>
+      </c>
+      <c r="E70">
+        <v>200</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E61D8-89D0-41A5-ACCF-C0A4EF4F9FE0}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G2">
+        <v>768</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G9">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G15">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E521EDE-C1A5-4711-9A22-13EE644E9B88}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G2">
+        <v>744</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dev/data/raws redesign/testbed.xlsx
+++ b/dev/data/raws redesign/testbed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git repositories\pseudonoma\luria\dev\data\raws redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD34C788-074D-409F-8E47-B8F2E98F45CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90688CA1-CB61-4795-AD77-5D03F716B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{056805A1-87E6-4EB4-B09C-17E609462B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="allData clean" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="93">
   <si>
     <t>strain</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>G10</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -11624,569 +11627,569 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0688490E-ACF2-46CD-81CD-1F40B0A8C2D3}">
-  <dimension ref="A1:K738"/>
+  <dimension ref="A1:L738"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>100000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>444</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
       <c r="E3">
         <v>200</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1">
         <v>100000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>118</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
       <c r="E4">
         <v>200</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="1">
         <v>100000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>91</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="1">
         <v>100000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>102</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
       <c r="E6">
         <v>200</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="1">
         <v>1000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
       <c r="E7">
         <v>200</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" s="1">
         <v>100000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>226</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
       <c r="E8">
         <v>200</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="1">
         <v>100000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>202</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1">
         <v>100000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>209</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1">
         <v>1000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>187</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" s="1">
         <v>100000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>206</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" s="1">
         <v>100000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>207</v>
       </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
       <c r="E14">
         <v>200</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" s="1">
         <v>1000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
       <c r="E15">
         <v>200</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15" s="1">
         <v>100000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>178</v>
       </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
       <c r="E16">
         <v>200</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16" s="1">
         <v>100000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>187</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="D17">
-        <v>200</v>
-      </c>
       <c r="E17">
         <v>200</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" s="1">
         <v>100000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>149</v>
       </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
       <c r="I17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
       <c r="E18">
         <v>200</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18" s="1">
         <v>1000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>30</v>
       </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
       <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -12194,28 +12197,28 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
       <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
       <c r="E20">
         <v>200</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -12223,28 +12226,28 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
       <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
       <c r="E21">
         <v>200</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -12252,57 +12255,57 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
-        <v>200</v>
-      </c>
       <c r="E22">
         <v>200</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
       <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="D23">
-        <v>200</v>
-      </c>
       <c r="E23">
         <v>200</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -12310,86 +12313,86 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
       <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
       <c r="E24">
         <v>200</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
       <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="D25">
-        <v>200</v>
-      </c>
       <c r="E25">
         <v>200</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
       <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
-        <v>200</v>
-      </c>
       <c r="E26">
         <v>200</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -12397,28 +12400,28 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="D27">
-        <v>200</v>
-      </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -12426,153 +12429,156 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78" s="1"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138" s="1"/>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F198" s="1"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F258" s="1"/>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F318" s="1"/>
-    </row>
-    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F375" s="1"/>
-    </row>
-    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F376" s="1"/>
-    </row>
-    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F377" s="1"/>
-    </row>
-    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F378" s="1"/>
-    </row>
-    <row r="435" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F435" s="1"/>
-    </row>
-    <row r="436" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F436" s="1"/>
-    </row>
-    <row r="437" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F437" s="1"/>
-    </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F438" s="1"/>
-    </row>
-    <row r="495" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F495" s="1"/>
-    </row>
-    <row r="496" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F496" s="1"/>
-    </row>
-    <row r="497" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F497" s="1"/>
-    </row>
-    <row r="498" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F498" s="1"/>
-    </row>
-    <row r="555" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F555" s="1"/>
-    </row>
-    <row r="556" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F556" s="1"/>
-    </row>
-    <row r="557" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F557" s="1"/>
-    </row>
-    <row r="558" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F558" s="1"/>
-    </row>
-    <row r="615" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F615" s="1"/>
-    </row>
-    <row r="616" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F616" s="1"/>
-    </row>
-    <row r="617" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F617" s="1"/>
-    </row>
-    <row r="618" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F618" s="1"/>
-    </row>
-    <row r="675" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F675" s="1"/>
-    </row>
-    <row r="676" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F676" s="1"/>
-    </row>
-    <row r="677" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F677" s="1"/>
-    </row>
-    <row r="678" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F678" s="1"/>
-    </row>
-    <row r="735" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F735" s="1"/>
-    </row>
-    <row r="736" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F736" s="1"/>
-    </row>
-    <row r="737" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F737" s="1"/>
-    </row>
-    <row r="738" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F738" s="1"/>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G258" s="1"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G318" s="1"/>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G376" s="1"/>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G377" s="1"/>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G378" s="1"/>
+    </row>
+    <row r="435" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G435" s="1"/>
+    </row>
+    <row r="436" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G436" s="1"/>
+    </row>
+    <row r="437" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G437" s="1"/>
+    </row>
+    <row r="438" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G438" s="1"/>
+    </row>
+    <row r="495" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G498" s="1"/>
+    </row>
+    <row r="555" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G555" s="1"/>
+    </row>
+    <row r="556" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G556" s="1"/>
+    </row>
+    <row r="557" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G557" s="1"/>
+    </row>
+    <row r="558" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G558" s="1"/>
+    </row>
+    <row r="615" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G615" s="1"/>
+    </row>
+    <row r="616" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G616" s="1"/>
+    </row>
+    <row r="617" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G617" s="1"/>
+    </row>
+    <row r="618" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G618" s="1"/>
+    </row>
+    <row r="675" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G675" s="1"/>
+    </row>
+    <row r="676" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G676" s="1"/>
+    </row>
+    <row r="677" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G677" s="1"/>
+    </row>
+    <row r="678" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G678" s="1"/>
+    </row>
+    <row r="735" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G735" s="1"/>
+    </row>
+    <row r="736" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G736" s="1"/>
+    </row>
+    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G737" s="1"/>
+    </row>
+    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G738" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14855,7 +14861,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15051,7 +15057,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -15179,7 +15185,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -15307,7 +15313,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -15435,7 +15441,7 @@
         <v>200</v>
       </c>
       <c r="F18" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -15460,7 +15466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E521EDE-C1A5-4711-9A22-13EE644E9B88}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
